--- a/TP2/Q1/all_outputs.xlsx
+++ b/TP2/Q1/all_outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Repos\TCP_IP_Networks\TP2\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5CABB-A57D-4B84-8723-4D2F361EE55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CC49CDE3-5BE6-4893-8307-32CC276D0B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC8F8C29-8F8B-4FF9-8436-92670E99E78A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="145">
   <si>
     <t>Running</t>
   </si>
@@ -468,7 +468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -618,9 +618,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -636,49 +633,43 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,6 +686,5522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Variações Diárias - UFRJ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31893044619422573"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$C$38:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>06-12 h</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-18 h</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-24 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$F$12,'Period '!$F$23,'Period '!$F$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0459523809523796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0626666666666678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5743809523809524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A62-43AE-96C4-72FA3AAC8C51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814586191"/>
+        <c:axId val="1814583791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814586191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Período do dia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814583791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814583791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de RTT [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814586191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Variações Diárias - UCSC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31893044619422573"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Periodo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$C$38:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>06-12 h</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-18 h</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-24 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$L$12,'Period '!$L$23,'Period '!$L$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89.547874999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.695541666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.612333333333325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD86-40F1-B9A4-813EB5800597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814586191"/>
+        <c:axId val="1814583791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814586191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Período do dia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814583791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814583791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de RTT [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814586191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Variações Diárias - PHIL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31893044619422573"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Periodo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$C$38:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>06-12 h</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-18 h</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-24 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$R$12,'Period '!$R$23,'Period '!$R$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.1922222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.73074444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.962851851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2729-495B-8E44-77A6034E4C0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814586191"/>
+        <c:axId val="1814583791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Period '!$R$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>140,30</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2729-495B-8E44-77A6034E4C0B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814586191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Período do dia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814583791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814583791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de RTT [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814586191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Variações Diárias - Adelaide</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31893044619422573"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Periodo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$C$38:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>06-12 h</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-18 h</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-24 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$X$12,'Period '!$X$23,'Period '!$X$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>171.76399074074072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.32222222222222</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>197.19749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33E2-4A66-8B89-F0D9D0AA4C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1814586191"/>
+        <c:axId val="1814583791"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814586191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Período do dia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814583791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814583791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de RTT [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814586191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Variações Diárias </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33442854784388248"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Adelaide</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$C$38:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>06-12 h</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12-18 h</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18-24 h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$X$12,'Period '!$X$23,'Period '!$X$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>171.76399074074072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.32222222222222</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>197.19749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C30-477C-A240-AC0784E77088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PHIL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$R$12,'Period '!$R$23,'Period '!$R$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.1922222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.73074444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.962851851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C30-477C-A240-AC0784E77088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UCSC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$L$12,'Period '!$L$23,'Period '!$L$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89.547874999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.695541666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.612333333333325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C30-477C-A240-AC0784E77088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>UFRJ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('Period '!$F$12,'Period '!$F$23,'Period '!$F$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0459523809523796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0626666666666678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5743809523809524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C30-477C-A240-AC0784E77088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1814586191"/>
+        <c:axId val="1814583791"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1814586191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Período do dia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1814583791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1814583791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo de RTT [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1814586191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>793749</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>402166</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>65617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463401DA-C09A-41C5-9380-BBB09604E40E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBF6C15-3483-4E82-828B-6389C0CDCA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769A66F8-B5C2-4788-BD08-A2D6BA11C15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E113DAFB-AA39-43DB-92A1-FA4358BFBA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>338668</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC6F71B-0A09-44F1-8EC6-2EEF12207A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,7 +6504,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,38 +6525,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -1058,61 +6565,61 @@
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>2.1230000000000002</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>2.3330000000000002</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>1.853</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="25">
+      <c r="F2" s="11"/>
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>4.6269999999999998</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>3.62</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>4.1020000000000003</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="25">
+      <c r="L2" s="11"/>
+      <c r="M2" s="8">
         <v>1</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <v>2.137</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="18">
         <v>2.1160000000000001</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="18">
         <v>1.984</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="13">
+      <c r="R2" s="11"/>
+      <c r="S2" s="12">
         <v>1</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="18">
         <v>2.601</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="18">
         <v>2.1240000000000001</v>
       </c>
-      <c r="W2" s="12"/>
+      <c r="W2" s="11"/>
       <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1122,61 +6629,61 @@
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>4.165</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>4.99</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="25">
+      <c r="F3" s="11"/>
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>5.3840000000000003</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>4.0030000000000001</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>3.8540000000000001</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="25">
+      <c r="L3" s="11"/>
+      <c r="M3" s="8">
         <v>2</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>4.125</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>4.1840000000000002</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>6.4770000000000003</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13">
+      <c r="R3" s="11"/>
+      <c r="S3" s="12">
         <v>2</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="18">
         <v>4.2359999999999998</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="18">
         <v>3.8319999999999999</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="18">
         <v>3.75</v>
       </c>
       <c r="X3" s="9"/>
@@ -1188,61 +6695,61 @@
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>3.4119999999999999</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>5.5650000000000004</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>4.2290000000000001</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="25">
+      <c r="F4" s="11"/>
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>5.085</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>3.7429999999999999</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>3.819</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="25">
+      <c r="L4" s="11"/>
+      <c r="M4" s="8">
         <v>3</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>4.5110000000000001</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <v>3.9140000000000001</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>166.39699999999999</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="13">
+      <c r="R4" s="11"/>
+      <c r="S4" s="12">
         <v>3</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <v>3.9449999999999998</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="18">
         <v>4.4480000000000004</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="18">
         <v>2.9950000000000001</v>
       </c>
       <c r="X4" s="9"/>
@@ -1254,61 +6761,61 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>5.6890000000000001</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>3.5179999999999998</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>4.4619999999999997</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="25">
+      <c r="F5" s="11"/>
+      <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>4.1769999999999996</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>4.2930000000000001</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>3.8490000000000002</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="25">
+      <c r="L5" s="11"/>
+      <c r="M5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <v>4.7720000000000002</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <v>4.8899999999999997</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>4.0629999999999997</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13">
+      <c r="R5" s="11"/>
+      <c r="S5" s="12">
         <v>4</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>5.0220000000000002</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="18">
         <v>3.8479999999999999</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <v>6.6130000000000004</v>
       </c>
       <c r="X5" s="9"/>
@@ -1320,61 +6827,61 @@
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>9.0709999999999997</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>6.2069999999999999</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>3.5179999999999998</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>4.0199999999999996</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>6.55</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <v>6.3339999999999996</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="25">
+      <c r="L6" s="11"/>
+      <c r="M6" s="8">
         <v>5</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <v>4.6020000000000003</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <v>3.9510000000000001</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>7.2409999999999997</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13">
+      <c r="R6" s="11"/>
+      <c r="S6" s="12">
         <v>5</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="18">
         <v>6.0519999999999996</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="18">
         <v>3.5510000000000002</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <v>5.1029999999999998</v>
       </c>
       <c r="X6" s="9"/>
@@ -1386,61 +6893,61 @@
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>10.452999999999999</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>19.119</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>9.7769999999999992</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="25">
+      <c r="F7" s="11"/>
+      <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>46.212000000000003</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>53.826999999999998</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>17.062000000000001</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="25">
+      <c r="L7" s="11"/>
+      <c r="M7" s="8">
         <v>6</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <v>177.56899999999999</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <v>17.346</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="18">
         <v>19.126000000000001</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="13">
+      <c r="R7" s="11"/>
+      <c r="S7" s="12">
         <v>6</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="18">
         <v>17.827999999999999</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="18">
         <v>30.681999999999999</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="18">
         <v>45.887999999999998</v>
       </c>
       <c r="X7" s="9"/>
@@ -1452,59 +6959,59 @@
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>16.795999999999999</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>11.875999999999999</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>10.706</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="25">
+      <c r="F8" s="11"/>
+      <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>432.637</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>205.20699999999999</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>310.959</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="25">
+      <c r="L8" s="11"/>
+      <c r="M8" s="8">
         <v>7</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12">
         <v>7</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="12"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1514,59 +7021,59 @@
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="25">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>193.697</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>409.68599999999998</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>412.40199999999999</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="25">
+      <c r="L9" s="11"/>
+      <c r="M9" s="8">
         <v>8</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="18">
         <v>446.39499999999998</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="18">
         <v>1023.253</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="18">
         <v>205.179</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="13">
+      <c r="R9" s="11"/>
+      <c r="S9" s="12">
         <v>8</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="18">
         <v>642.40599999999995</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="18">
         <v>405.55500000000001</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="18">
         <v>416.267</v>
       </c>
       <c r="X9" s="9"/>
@@ -1578,195 +7085,195 @@
       <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="25">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="25">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="8">
         <v>9</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <v>208.76</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <v>1335.9269999999999</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="18">
         <v>296.97300000000001</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13">
+      <c r="R10" s="11"/>
+      <c r="S10" s="12">
         <v>9</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="18">
         <v>403.512</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="18">
         <v>617.19100000000003</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="18">
         <v>405.29199999999997</v>
       </c>
       <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="25">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="25">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8">
         <v>10</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>536.40499999999997</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="18">
         <v>691.745</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="18">
         <v>1436.1479999999999</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="20">
+      <c r="R11" s="11"/>
+      <c r="S11" s="19">
         <v>10</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="T11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="18">
         <v>621.6</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="18">
         <v>401.89</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="18">
         <v>409.47399999999999</v>
       </c>
       <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="28">
+      <c r="B12" s="34"/>
+      <c r="C12" s="24">
         <f>AVERAGE(C2:C11)</f>
         <v>7.3869999999999996</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <f>AVERAGE(D2,D3:D8)</f>
         <v>8.1029999999999998</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <f>AVERAGE(E2,E3:E8)</f>
         <v>5.6478571428571422</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="24">
         <f>AVERAGE(C12:E12)</f>
         <v>7.0459523809523796</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28">
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24">
         <f>AVERAGE(I2:I11)</f>
         <v>86.979874999999993</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="24">
         <f t="shared" ref="J12:K12" si="0">AVERAGE(J2:J11)</f>
         <v>86.366124999999997</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="24">
         <f t="shared" si="0"/>
         <v>95.297624999999996</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="24">
         <f>AVERAGE(I12:K12)</f>
         <v>89.547874999999991</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28">
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24">
         <f>AVERAGE(O2:O11)</f>
         <v>154.36399999999998</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="24">
         <f t="shared" ref="P12:Q12" si="1">AVERAGE(P2:P11)</f>
         <v>343.03622222222225</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="24">
         <f t="shared" si="1"/>
         <v>238.17644444444443</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="24">
         <f>AVERAGE(O12:Q12)</f>
         <v>245.1922222222222</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28">
+      <c r="S12" s="26"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24">
         <f>AVERAGE(U2:U11)</f>
         <v>189.68911111111109</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="24">
         <f t="shared" ref="V12:W12" si="2">AVERAGE(V2:V11)</f>
         <v>163.68011111111113</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="24">
         <f t="shared" si="2"/>
         <v>161.92274999999998</v>
       </c>
-      <c r="X12" s="28">
+      <c r="X12" s="24">
         <f>AVERAGE(U12:W12)</f>
         <v>171.76399074074072</v>
       </c>
@@ -1778,61 +7285,61 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>3.0640000000000001</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>2.0009999999999999</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>2.9060000000000001</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="26">
+      <c r="F13" s="14"/>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>4.2770000000000001</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>2.5790000000000002</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>2.036</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="26">
+      <c r="L13" s="14"/>
+      <c r="M13" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>2.3650000000000002</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="14">
         <v>3.0259999999999998</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="14">
         <v>3.0129999999999999</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="16">
+      <c r="R13" s="14"/>
+      <c r="S13" s="15">
         <v>1</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="14">
         <v>4.6059999999999999</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="14">
         <v>2.5249999999999999</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="14">
         <v>6.0659999999999998</v>
       </c>
       <c r="X13" s="5"/>
@@ -1844,61 +7351,61 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>3.9529999999999998</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>7.8689999999999998</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>10.436</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="26">
+      <c r="F14" s="14"/>
+      <c r="G14" s="4">
         <v>2</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <v>4.1210000000000004</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <v>6.8170000000000002</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>5.94</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="26">
+      <c r="L14" s="14"/>
+      <c r="M14" s="4">
         <v>2</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <v>8.3640000000000008</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <v>8.81</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="14">
         <v>3.9060000000000001</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="16">
+      <c r="R14" s="14"/>
+      <c r="S14" s="15">
         <v>2</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="14">
         <v>7.0750000000000002</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="14">
         <v>3.9249999999999998</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <v>3.9079999999999999</v>
       </c>
       <c r="X14" s="5"/>
@@ -1910,61 +7417,61 @@
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>3.6459999999999999</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>3.1680000000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>3.9169999999999998</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="26">
+      <c r="F15" s="14"/>
+      <c r="G15" s="4">
         <v>3</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <v>4.2119999999999997</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>3.7290000000000001</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>3.3860000000000001</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="26">
+      <c r="L15" s="14"/>
+      <c r="M15" s="4">
         <v>3</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <v>4.0010000000000003</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="14">
         <v>3.5910000000000002</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="14">
         <v>3.5510000000000002</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16">
+      <c r="R15" s="14"/>
+      <c r="S15" s="15">
         <v>3</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="14">
         <v>3.9590000000000001</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="14">
         <v>7.2220000000000004</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="14">
         <v>3.33</v>
       </c>
       <c r="X15" s="5"/>
@@ -1976,61 +7483,61 @@
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>3.9569999999999999</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>4.976</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>3.569</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="26">
+      <c r="F16" s="14"/>
+      <c r="G16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>4.2190000000000003</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>4.173</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>12.755000000000001</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="26">
+      <c r="L16" s="14"/>
+      <c r="M16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="14">
         <v>6.1710000000000003</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="14">
         <v>4.8639999999999999</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="14">
         <v>8.6509999999999998</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16">
+      <c r="R16" s="14"/>
+      <c r="S16" s="15">
         <v>4</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="14">
         <v>163.381</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="14">
         <v>4.6619999999999999</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="14">
         <v>4.0869999999999997</v>
       </c>
       <c r="X16" s="5"/>
@@ -2042,61 +7549,61 @@
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>5.5119999999999996</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>6.1029999999999998</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>10.302</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="26">
+      <c r="F17" s="14"/>
+      <c r="G17" s="4">
         <v>5</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>7.7270000000000003</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>4.3019999999999996</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>3.9689999999999999</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="26">
+      <c r="L17" s="14"/>
+      <c r="M17" s="4">
         <v>5</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="14">
         <v>3.996</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="14">
         <v>2.66</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="14">
         <v>9.1359999999999992</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="16">
+      <c r="R17" s="14"/>
+      <c r="S17" s="15">
         <v>5</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U17" s="15">
+      <c r="U17" s="14">
         <v>4.4859999999999998</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="14">
         <v>4.0869999999999997</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="14">
         <v>3.948</v>
       </c>
       <c r="X17" s="5"/>
@@ -2108,61 +7615,61 @@
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>12.628</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>10.032999999999999</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="26">
+      <c r="F18" s="14"/>
+      <c r="G18" s="4">
         <v>6</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <v>16.442</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>19.035</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>18.507999999999999</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="26">
+      <c r="L18" s="14"/>
+      <c r="M18" s="4">
         <v>6</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="14">
         <v>19.327999999999999</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="14">
         <v>20.224</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="14">
         <v>16.68</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="16">
+      <c r="R18" s="14"/>
+      <c r="S18" s="15">
         <v>6</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="14">
         <v>16.184000000000001</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="14">
         <v>167.81899999999999</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="14">
         <v>39.935000000000002</v>
       </c>
       <c r="X18" s="5"/>
@@ -2174,61 +7681,61 @@
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>18.353000000000002</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>11.065</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>10.988</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="26">
+      <c r="F19" s="14"/>
+      <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <v>183.739</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <v>212.886</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>190.11</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="26">
+      <c r="L19" s="14"/>
+      <c r="M19" s="4">
         <v>7</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="14">
         <v>373.88499999999999</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16">
+      <c r="R19" s="14"/>
+      <c r="S19" s="15">
         <v>7</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="U19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="15" t="s">
+      <c r="V19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="15"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="5"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2238,59 +7745,59 @@
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="26">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4">
         <v>8</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="14">
         <v>208.267</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="14">
         <v>201.23</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>308.23399999999998</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="26">
+      <c r="L20" s="14"/>
+      <c r="M20" s="4">
         <v>8</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <v>229.071</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <v>204.28700000000001</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="14">
         <v>204.726</v>
       </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16">
+      <c r="R20" s="14"/>
+      <c r="S20" s="15">
         <v>8</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="14">
         <v>515.52599999999995</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="14">
         <v>609.88199999999995</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="14">
         <v>416.05700000000002</v>
       </c>
       <c r="X20" s="5"/>
@@ -2302,57 +7809,57 @@
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="26">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="4">
         <v>9</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="26">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="4">
         <v>9</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <v>204.72200000000001</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="14">
         <v>204.78700000000001</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="14">
         <v>193.881</v>
       </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16">
+      <c r="R21" s="14"/>
+      <c r="S21" s="15">
         <v>9</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="14">
         <v>547.63599999999997</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="14">
         <v>397.202</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W21" s="14">
         <v>584.846</v>
       </c>
       <c r="X21" s="5"/>
@@ -2364,133 +7871,133 @@
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="26">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="4">
         <v>10</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="26">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="4">
         <v>10</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <v>371.13600000000002</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="14">
         <v>205.47</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="14">
         <v>220.732</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="16">
+      <c r="R22" s="14"/>
+      <c r="S22" s="15">
         <v>10</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U22" s="14">
         <v>419.87099999999998</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="14">
         <v>501.44200000000001</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W22" s="14">
         <v>614.03300000000002</v>
       </c>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28">
+      <c r="B23" s="34"/>
+      <c r="C23" s="24">
         <f>AVERAGE(C13:C22)</f>
         <v>7.3018571428571439</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="24">
         <f>AVERAGE(D13,D14:D19)</f>
         <v>6.4592857142857136</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <f>AVERAGE(E13,E14:E19)</f>
         <v>7.426857142857143</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="24">
         <f>AVERAGE(C23:E23)</f>
         <v>7.0626666666666678</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28">
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24">
         <f>AVERAGE(I13:I22)</f>
         <v>54.125500000000002</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="24">
         <f t="shared" ref="J23" si="3">AVERAGE(J13:J22)</f>
         <v>56.843874999999997</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="24">
         <f t="shared" ref="K23" si="4">AVERAGE(K13:K22)</f>
         <v>68.117249999999999</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="24">
         <f>AVERAGE(I23:K23)</f>
         <v>59.695541666666664</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28">
+      <c r="M23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24">
         <f>AVERAGE(O13:O22)</f>
         <v>122.3039</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="24">
         <f t="shared" ref="P23" si="5">AVERAGE(P13:P22)</f>
         <v>73.079888888888888</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="24">
         <f t="shared" ref="Q23" si="6">AVERAGE(Q13:Q22)</f>
         <v>73.808444444444433</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="24">
         <f>AVERAGE(O23:Q23)</f>
         <v>89.73074444444444</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28">
+      <c r="S23" s="26"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24">
         <f>AVERAGE(U13:U22)</f>
         <v>186.96933333333334</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="24">
         <f t="shared" ref="V23" si="7">AVERAGE(V13:V22)</f>
         <v>188.75177777777779</v>
       </c>
-      <c r="W23" s="28">
+      <c r="W23" s="24">
         <f t="shared" ref="W23" si="8">AVERAGE(W13:W22)</f>
         <v>186.24555555555557</v>
       </c>
-      <c r="X23" s="31">
+      <c r="X23" s="27">
         <f>AVERAGE(U23:W23)</f>
         <v>187.32222222222222</v>
       </c>
@@ -2502,61 +8009,61 @@
       <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>2.0529999999999999</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>2.1749999999999998</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>1.4850000000000001</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="27">
+      <c r="F24" s="16"/>
+      <c r="G24" s="6">
         <v>1</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>5.367</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>2.0950000000000002</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>2.5030000000000001</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="27">
+      <c r="L24" s="16"/>
+      <c r="M24" s="6">
         <v>1</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="21">
         <v>2.903</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="21">
         <v>2.4740000000000002</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="21">
         <v>2.0510000000000002</v>
       </c>
-      <c r="R24" s="17"/>
-      <c r="S24" s="18">
+      <c r="R24" s="16"/>
+      <c r="S24" s="17">
         <v>1</v>
       </c>
-      <c r="T24" s="17" t="s">
+      <c r="T24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="21">
         <v>2.61</v>
       </c>
-      <c r="V24" s="22">
+      <c r="V24" s="21">
         <v>2.238</v>
       </c>
-      <c r="W24" s="22">
+      <c r="W24" s="21">
         <v>2.4980000000000002</v>
       </c>
       <c r="X24" s="7"/>
@@ -2568,61 +8075,61 @@
       <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>3.6280000000000001</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>3.2269999999999999</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>10.074</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="27">
+      <c r="F25" s="16"/>
+      <c r="G25" s="6">
         <v>2</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <v>4.2619999999999996</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>5.3</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>4.585</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="27">
+      <c r="L25" s="16"/>
+      <c r="M25" s="6">
         <v>2</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="21">
         <v>4.9139999999999997</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="21">
         <v>6.4740000000000002</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="21">
         <v>4.3239999999999998</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="18">
+      <c r="R25" s="16"/>
+      <c r="S25" s="17">
         <v>2</v>
       </c>
-      <c r="T25" s="17" t="s">
+      <c r="T25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="21">
         <v>4.2859999999999996</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25" s="21">
         <v>3.9609999999999999</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="21">
         <v>167.35</v>
       </c>
       <c r="X25" s="7"/>
@@ -2634,61 +8141,61 @@
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>6.4089999999999998</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>3.6909999999999998</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>3.3359999999999999</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="27">
+      <c r="F26" s="16"/>
+      <c r="G26" s="6">
         <v>3</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>4.75</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>18.690999999999999</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="27">
+      <c r="L26" s="16"/>
+      <c r="M26" s="6">
         <v>3</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="21">
         <v>6.843</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="21">
         <v>3.8450000000000002</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="21">
         <v>6.9009999999999998</v>
       </c>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18">
+      <c r="R26" s="16"/>
+      <c r="S26" s="17">
         <v>3</v>
       </c>
-      <c r="T26" s="17" t="s">
+      <c r="T26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="21">
         <v>4.4850000000000003</v>
       </c>
-      <c r="V26" s="22">
+      <c r="V26" s="21">
         <v>6.74</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W26" s="21">
         <v>10.303000000000001</v>
       </c>
       <c r="X26" s="7"/>
@@ -2700,61 +8207,61 @@
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>6.3659999999999997</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>3.59</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>6.4749999999999996</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="27">
+      <c r="F27" s="16"/>
+      <c r="G27" s="6">
         <v>4</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <v>4.7389999999999999</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>4.0179999999999998</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>4.1369999999999996</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="27">
+      <c r="L27" s="16"/>
+      <c r="M27" s="6">
         <v>4</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="21">
         <v>4.4429999999999996</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="21">
         <v>6.0869999999999997</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="21">
         <v>4.3710000000000004</v>
       </c>
-      <c r="R27" s="17"/>
-      <c r="S27" s="18">
+      <c r="R27" s="16"/>
+      <c r="S27" s="17">
         <v>4</v>
       </c>
-      <c r="T27" s="17" t="s">
+      <c r="T27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="21">
         <v>7.101</v>
       </c>
-      <c r="V27" s="22">
+      <c r="V27" s="21">
         <v>4.2359999999999998</v>
       </c>
-      <c r="W27" s="22">
+      <c r="W27" s="21">
         <v>4.1609999999999996</v>
       </c>
       <c r="X27" s="7"/>
@@ -2766,61 +8273,61 @@
       <c r="B28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>3.95</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>4.2270000000000003</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>4.4630000000000001</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="27">
+      <c r="F28" s="16"/>
+      <c r="G28" s="6">
         <v>5</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>15.552</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>19.175999999999998</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>4.0709999999999997</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="27">
+      <c r="L28" s="16"/>
+      <c r="M28" s="6">
         <v>5</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="21">
         <v>4.2060000000000004</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="21">
         <v>3.8149999999999999</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="21">
         <v>10.948</v>
       </c>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18">
+      <c r="R28" s="16"/>
+      <c r="S28" s="17">
         <v>5</v>
       </c>
-      <c r="T28" s="17" t="s">
+      <c r="T28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="21">
         <v>164.96100000000001</v>
       </c>
-      <c r="V28" s="22">
+      <c r="V28" s="21">
         <v>6.8840000000000003</v>
       </c>
-      <c r="W28" s="22">
+      <c r="W28" s="21">
         <v>6.173</v>
       </c>
       <c r="X28" s="7"/>
@@ -2832,61 +8339,61 @@
       <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>10.968</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>13.829000000000001</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>10.106</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="27">
+      <c r="F29" s="16"/>
+      <c r="G29" s="6">
         <v>6</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>17.975000000000001</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>16.044</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>18.462</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="27">
+      <c r="L29" s="16"/>
+      <c r="M29" s="6">
         <v>6</v>
       </c>
-      <c r="N29" s="17" t="s">
+      <c r="N29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="21">
         <v>25.327999999999999</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="21">
         <v>16.446000000000002</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="21">
         <v>16.649000000000001</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="18">
+      <c r="R29" s="16"/>
+      <c r="S29" s="17">
         <v>6</v>
       </c>
-      <c r="T29" s="17" t="s">
+      <c r="T29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="21">
         <v>17.234999999999999</v>
       </c>
-      <c r="V29" s="22">
+      <c r="V29" s="21">
         <v>173.435</v>
       </c>
-      <c r="W29" s="22">
+      <c r="W29" s="21">
         <v>21.829000000000001</v>
       </c>
       <c r="X29" s="7"/>
@@ -2898,59 +8405,59 @@
       <c r="B30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>11.914999999999999</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>14.927</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>11.167999999999999</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="27">
+      <c r="F30" s="16"/>
+      <c r="G30" s="6">
         <v>7</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>128.786</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>129.68100000000001</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>297.279</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="27">
+      <c r="L30" s="16"/>
+      <c r="M30" s="6">
         <v>7</v>
       </c>
-      <c r="N30" s="17" t="s">
+      <c r="N30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="23" t="s">
+      <c r="P30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="18">
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="17">
         <v>7</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="U30" s="22">
+      <c r="U30" s="21">
         <v>205.13200000000001</v>
       </c>
-      <c r="V30" s="22">
+      <c r="V30" s="21">
         <v>191.422</v>
       </c>
-      <c r="W30" s="22">
+      <c r="W30" s="21">
         <v>197.85300000000001</v>
       </c>
       <c r="X30" s="7"/>
@@ -2962,59 +8469,59 @@
       <c r="B31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="27">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="6">
         <v>8</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>203.43299999999999</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>717.36699999999996</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>129.79300000000001</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="27">
+      <c r="L31" s="16"/>
+      <c r="M31" s="6">
         <v>8</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="21">
         <v>193.10400000000001</v>
       </c>
-      <c r="P31" s="22">
+      <c r="P31" s="21">
         <v>192.976</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="21">
         <v>341.61900000000003</v>
       </c>
-      <c r="R31" s="17"/>
-      <c r="S31" s="18">
+      <c r="R31" s="16"/>
+      <c r="S31" s="17">
         <v>8</v>
       </c>
-      <c r="T31" s="17" t="s">
+      <c r="T31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="U31" s="22">
+      <c r="U31" s="21">
         <v>412.99299999999999</v>
       </c>
-      <c r="V31" s="22">
+      <c r="V31" s="21">
         <v>413.017</v>
       </c>
-      <c r="W31" s="22">
+      <c r="W31" s="21">
         <v>424.56599999999997</v>
       </c>
       <c r="X31" s="7"/>
@@ -3026,271 +8533,271 @@
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="27">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="6">
         <v>9</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="27">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="6">
         <v>9</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="21">
         <v>207.309</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="21">
         <v>219.499</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="21">
         <v>205.126</v>
       </c>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18">
+      <c r="R32" s="16"/>
+      <c r="S32" s="17">
         <v>9</v>
       </c>
-      <c r="T32" s="17" t="s">
+      <c r="T32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="22">
+      <c r="U32" s="21">
         <v>399.76900000000001</v>
       </c>
-      <c r="V32" s="22">
+      <c r="V32" s="21">
         <v>417.83100000000002</v>
       </c>
-      <c r="W32" s="22">
+      <c r="W32" s="21">
         <v>898.78399999999999</v>
       </c>
       <c r="X32" s="7"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="27">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="6">
         <v>10</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="27">
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="6">
         <v>10</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="21">
         <v>206.64</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="21">
         <v>222.143</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="21">
         <v>399.55900000000003</v>
       </c>
-      <c r="R33" s="17"/>
-      <c r="S33" s="24">
+      <c r="R33" s="16"/>
+      <c r="S33" s="23">
         <v>10</v>
       </c>
-      <c r="T33" s="17" t="s">
+      <c r="T33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="21">
         <v>386.78699999999998</v>
       </c>
-      <c r="V33" s="22">
+      <c r="V33" s="21">
         <v>458.50099999999998</v>
       </c>
-      <c r="W33" s="22">
+      <c r="W33" s="21">
         <v>898.78399999999999</v>
       </c>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="28">
+      <c r="B34" s="34"/>
+      <c r="C34" s="24">
         <f>AVERAGE(C24:C33)</f>
         <v>6.4698571428571423</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="29">
         <f>AVERAGE(D24,D25:D30)</f>
         <v>6.5237142857142851</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="24">
         <f>AVERAGE(E24,E25:E30)</f>
         <v>6.7295714285714281</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="24">
         <f>AVERAGE(C34:E34)</f>
         <v>6.5743809523809524</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28">
+      <c r="G34" s="26"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24">
         <f>AVERAGE(I24:I33)</f>
         <v>48.108000000000004</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="24">
         <f t="shared" ref="J34" si="9">AVERAGE(J24:J33)</f>
         <v>114.04649999999999</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="24">
         <f t="shared" ref="K34" si="10">AVERAGE(K24:K33)</f>
         <v>58.682500000000005</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="24">
         <f>AVERAGE(I34:K34)</f>
         <v>73.612333333333325</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28">
+      <c r="M34" s="26"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24">
         <f>AVERAGE(O24:O33)</f>
         <v>72.854444444444454</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="24">
         <f t="shared" ref="P34" si="11">AVERAGE(P24:P33)</f>
         <v>74.862111111111119</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="24">
         <f t="shared" ref="Q34" si="12">AVERAGE(Q24:Q33)</f>
         <v>110.172</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="24">
         <f>AVERAGE(O34:Q34)</f>
         <v>85.962851851851852</v>
       </c>
-      <c r="S34" s="30"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28">
+      <c r="S34" s="26"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24">
         <f>AVERAGE(U24:U33)</f>
         <v>160.53590000000003</v>
       </c>
-      <c r="V34" s="28">
+      <c r="V34" s="24">
         <f t="shared" ref="V34" si="13">AVERAGE(V24:V33)</f>
         <v>167.82650000000001</v>
       </c>
-      <c r="W34" s="28">
+      <c r="W34" s="24">
         <f t="shared" ref="W34" si="14">AVERAGE(W24:W33)</f>
         <v>263.23009999999999</v>
       </c>
-      <c r="X34" s="28">
+      <c r="X34" s="24">
         <f>AVERAGE(U34:W34)</f>
         <v>197.19749999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37">
+      <c r="B36" s="35"/>
+      <c r="C36" s="31">
         <f>AVERAGE(C12,C23,C34)</f>
         <v>7.0529047619047622</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="31">
         <f t="shared" ref="D36:F36" si="15">AVERAGE(D12,D23,D34)</f>
         <v>7.0286666666666662</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="31">
         <f t="shared" si="15"/>
         <v>6.6014285714285714</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="31">
         <f t="shared" si="15"/>
         <v>6.894333333333333</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="37">
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="31">
         <f>AVERAGE(I12,I23,I34)</f>
         <v>63.071124999999995</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="31">
         <f t="shared" ref="J36:L36" si="16">AVERAGE(J12,J23,J34)</f>
         <v>85.752166666666653</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="31">
         <f t="shared" si="16"/>
         <v>74.032458333333338</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="31">
         <f t="shared" si="16"/>
         <v>74.285250000000005</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="37">
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="31">
         <f>AVERAGE(O12,O23,O34)</f>
         <v>116.50744814814816</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="31">
         <f t="shared" ref="P36:R36" si="17">AVERAGE(P12,P23,P34)</f>
         <v>163.65940740740743</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="31">
         <f t="shared" si="17"/>
         <v>140.71896296296293</v>
       </c>
-      <c r="R36" s="37">
+      <c r="R36" s="31">
         <f t="shared" si="17"/>
         <v>140.29527283950617</v>
       </c>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="37">
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="31">
         <f>AVERAGE(U12,U23,U34)</f>
         <v>179.06478148148145</v>
       </c>
-      <c r="V36" s="37">
+      <c r="V36" s="31">
         <f t="shared" ref="V36:X36" si="18">AVERAGE(V12,V23,V34)</f>
         <v>173.41946296296297</v>
       </c>
-      <c r="W36" s="37">
+      <c r="W36" s="31">
         <f t="shared" si="18"/>
         <v>203.79946851851852</v>
       </c>
-      <c r="X36" s="37">
+      <c r="X36" s="31">
         <f t="shared" si="18"/>
         <v>185.42790432098764</v>
       </c>
@@ -3303,7 +8810,7 @@
       <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3315,7 +8822,7 @@
       <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="28" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3330,18 +8837,19 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3350,15 +8858,12 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>

--- a/TP2/Q1/all_outputs.xlsx
+++ b/TP2/Q1/all_outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Repos\TCP_IP_Networks\TP2\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CC49CDE3-5BE6-4893-8307-32CC276D0B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E950683E-77E3-4413-B208-94FFA1F7489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC8F8C29-8F8B-4FF9-8436-92670E99E78A}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +519,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -652,7 +659,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -661,15 +667,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,8 +1279,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
-            <c:extLst/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1698,7 +1762,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1788,7 +1907,62 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:delete val="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
                 </c:dLbls>
                 <c:val>
                   <c:numLit>
@@ -2180,7 +2354,62 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2203,15 +2432,15 @@
             <c:numRef>
               <c:f>('Period '!$X$12,'Period '!$X$23,'Period '!$X$34)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
                   <c:v>171.76399074074072</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187.32222222222222</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>197.19749999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2421,7 +2650,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2686,15 +2915,15 @@
             <c:numRef>
               <c:f>('Period '!$X$12,'Period '!$X$23,'Period '!$X$34)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00">
+                <c:pt idx="0">
                   <c:v>171.76399074074072</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>187.32222222222222</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>197.19749999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3197,7 +3426,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3258,6 +3487,1491 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>UFRJ </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> 06 H as 12 H</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>192.168.18.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.75.240.241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.75.241.150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.75.241.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.75.241.145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.75.241.105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.6.52.102</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Period '!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5775000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5563333333333338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2653333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.116333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.125999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C085-4BA2-A409-413DB781FDCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1765624479"/>
+        <c:axId val="1765624959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765624479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Ip do host</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765624959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1765624959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" u="sng"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765624479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>UFRJ </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> 06 H as 12 H</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$B$13:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>192.168.18.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.75.240.241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.75.241.150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.75.241.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.75.241.145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.75.241.105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.6.52.102</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Period '!$F$13:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4193333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1673333333333327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3056666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.843666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.468666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C635-45D5-B068-38C1ED25F9FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1765624479"/>
+        <c:axId val="1765624959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765624479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Ip do host</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765624959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1765624959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" u="sng"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765624479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>UFRJ </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> 06 H as 12 H</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Period '!$B$13:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>192.168.18.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.75.240.241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.75.241.150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.75.241.153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.75.241.145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.75.241.105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.6.52.102</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Period '!$F$24:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9043333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4786666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4769999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2133333333333338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.634333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D804-4EAE-A174-81FF5ABFB0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1765624479"/>
+        <c:axId val="1765624959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1765624479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Ip do host</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765624959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1765624959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo em ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" u="sng"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765624479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3473,6 +5187,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6009,20 +7843,1577 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>793749</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>402166</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>328083</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>65617</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6090,15 +9481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21169</xdr:rowOff>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>105836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>97369</xdr:rowOff>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>182036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6128,15 +9519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>97366</xdr:rowOff>
+      <xdr:colOff>370416</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6165,16 +9556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158751</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>804334</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>338668</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>116416</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6196,6 +9587,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47B9EB6-FBBA-C048-0341-C8389B9910D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE62FA7-8840-4C31-9ACA-7CF7E9425533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8E6107-0150-4805-8FB1-31D902A30C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6501,10 +10004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5180D5-A426-4979-8FC6-854BBA643AC2}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6524,41 +10027,41 @@
     <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6574,7 +10077,10 @@
       <c r="E2" s="18">
         <v>1.853</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="37">
+        <f>AVERAGE(C2:E2)</f>
+        <v>2.1030000000000002</v>
+      </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
@@ -6590,7 +10096,10 @@
       <c r="K2" s="18">
         <v>4.1020000000000003</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="36">
+        <f>AVERAGE(I2:K2)</f>
+        <v>4.1163333333333334</v>
+      </c>
       <c r="M2" s="8">
         <v>1</v>
       </c>
@@ -6606,7 +10115,10 @@
       <c r="Q2" s="18">
         <v>1.984</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="37">
+        <f>AVERAGE(O2:Q2)</f>
+        <v>2.0790000000000002</v>
+      </c>
       <c r="S2" s="12">
         <v>1</v>
       </c>
@@ -6620,9 +10132,12 @@
         <v>2.1240000000000001</v>
       </c>
       <c r="W2" s="11"/>
-      <c r="X2" s="9"/>
+      <c r="X2" s="38">
+        <f>AVERAGE(U2:W2)</f>
+        <v>2.3624999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6638,7 +10153,10 @@
       <c r="E3" s="18">
         <v>4.99</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="37">
+        <f t="shared" ref="F3:F36" si="0">AVERAGE(C3:E3)</f>
+        <v>4.5775000000000006</v>
+      </c>
       <c r="G3" s="8">
         <v>2</v>
       </c>
@@ -6654,7 +10172,10 @@
       <c r="K3" s="18">
         <v>3.8540000000000001</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="36">
+        <f t="shared" ref="L3:L36" si="1">AVERAGE(I3:K3)</f>
+        <v>4.4136666666666668</v>
+      </c>
       <c r="M3" s="8">
         <v>2</v>
       </c>
@@ -6670,7 +10191,10 @@
       <c r="Q3" s="18">
         <v>6.4770000000000003</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="37">
+        <f t="shared" ref="R3:R36" si="2">AVERAGE(O3:Q3)</f>
+        <v>4.9286666666666674</v>
+      </c>
       <c r="S3" s="12">
         <v>2</v>
       </c>
@@ -6686,9 +10210,12 @@
       <c r="W3" s="18">
         <v>3.75</v>
       </c>
-      <c r="X3" s="9"/>
+      <c r="X3" s="38">
+        <f t="shared" ref="X3:X36" si="3">AVERAGE(U3:W3)</f>
+        <v>3.9393333333333334</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6704,7 +10231,10 @@
       <c r="E4" s="18">
         <v>4.2290000000000001</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="37">
+        <f t="shared" si="0"/>
+        <v>4.4020000000000001</v>
+      </c>
       <c r="G4" s="8">
         <v>3</v>
       </c>
@@ -6720,7 +10250,10 @@
       <c r="K4" s="18">
         <v>3.819</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2156666666666665</v>
+      </c>
       <c r="M4" s="8">
         <v>3</v>
       </c>
@@ -6736,7 +10269,10 @@
       <c r="Q4" s="18">
         <v>166.39699999999999</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="37">
+        <f t="shared" si="2"/>
+        <v>58.274000000000001</v>
+      </c>
       <c r="S4" s="12">
         <v>3</v>
       </c>
@@ -6752,9 +10288,12 @@
       <c r="W4" s="18">
         <v>2.9950000000000001</v>
       </c>
-      <c r="X4" s="9"/>
+      <c r="X4" s="38">
+        <f t="shared" si="3"/>
+        <v>3.7960000000000007</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6770,7 +10309,10 @@
       <c r="E5" s="18">
         <v>4.4619999999999997</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="37">
+        <f t="shared" si="0"/>
+        <v>4.5563333333333338</v>
+      </c>
       <c r="G5" s="8">
         <v>4</v>
       </c>
@@ -6786,7 +10328,10 @@
       <c r="K5" s="18">
         <v>3.8490000000000002</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="36">
+        <f t="shared" si="1"/>
+        <v>4.1063333333333327</v>
+      </c>
       <c r="M5" s="8">
         <v>4</v>
       </c>
@@ -6802,7 +10347,10 @@
       <c r="Q5" s="18">
         <v>4.0629999999999997</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="37">
+        <f t="shared" si="2"/>
+        <v>4.5749999999999993</v>
+      </c>
       <c r="S5" s="12">
         <v>4</v>
       </c>
@@ -6818,9 +10366,12 @@
       <c r="W5" s="18">
         <v>6.6130000000000004</v>
       </c>
-      <c r="X5" s="9"/>
+      <c r="X5" s="38">
+        <f t="shared" si="3"/>
+        <v>5.1610000000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6836,7 +10387,10 @@
       <c r="E6" s="18">
         <v>3.5179999999999998</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="37">
+        <f t="shared" si="0"/>
+        <v>6.2653333333333334</v>
+      </c>
       <c r="G6" s="8">
         <v>5</v>
       </c>
@@ -6852,7 +10406,10 @@
       <c r="K6" s="18">
         <v>6.3339999999999996</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="36">
+        <f t="shared" si="1"/>
+        <v>5.6346666666666669</v>
+      </c>
       <c r="M6" s="8">
         <v>5</v>
       </c>
@@ -6868,7 +10425,10 @@
       <c r="Q6" s="18">
         <v>7.2409999999999997</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="37">
+        <f t="shared" si="2"/>
+        <v>5.2646666666666668</v>
+      </c>
       <c r="S6" s="12">
         <v>5</v>
       </c>
@@ -6884,9 +10444,12 @@
       <c r="W6" s="18">
         <v>5.1029999999999998</v>
       </c>
-      <c r="X6" s="9"/>
+      <c r="X6" s="38">
+        <f t="shared" si="3"/>
+        <v>4.9020000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6902,7 +10465,10 @@
       <c r="E7" s="18">
         <v>9.7769999999999992</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="37">
+        <f t="shared" si="0"/>
+        <v>13.116333333333332</v>
+      </c>
       <c r="G7" s="8">
         <v>6</v>
       </c>
@@ -6918,7 +10484,10 @@
       <c r="K7" s="18">
         <v>17.062000000000001</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="36">
+        <f t="shared" si="1"/>
+        <v>39.033666666666669</v>
+      </c>
       <c r="M7" s="8">
         <v>6</v>
       </c>
@@ -6934,7 +10503,10 @@
       <c r="Q7" s="18">
         <v>19.126000000000001</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="37">
+        <f t="shared" si="2"/>
+        <v>71.346999999999994</v>
+      </c>
       <c r="S7" s="12">
         <v>6</v>
       </c>
@@ -6950,9 +10522,12 @@
       <c r="W7" s="18">
         <v>45.887999999999998</v>
       </c>
-      <c r="X7" s="9"/>
+      <c r="X7" s="38">
+        <f t="shared" si="3"/>
+        <v>31.465999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6968,7 +10543,10 @@
       <c r="E8" s="18">
         <v>10.706</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>13.125999999999999</v>
+      </c>
       <c r="G8" s="8">
         <v>7</v>
       </c>
@@ -6984,7 +10562,10 @@
       <c r="K8" s="18">
         <v>310.959</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="36">
+        <f t="shared" si="1"/>
+        <v>316.26766666666668</v>
+      </c>
       <c r="M8" s="8">
         <v>7</v>
       </c>
@@ -6998,7 +10579,10 @@
         <v>12</v>
       </c>
       <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="37" t="e">
+        <f>AVERAGE(O8:Q8)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S8" s="12">
         <v>7</v>
       </c>
@@ -7012,9 +10596,12 @@
         <v>12</v>
       </c>
       <c r="W8" s="11"/>
-      <c r="X8" s="9"/>
+      <c r="X8" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -7028,7 +10615,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G9" s="8">
         <v>8</v>
       </c>
@@ -7044,7 +10634,10 @@
       <c r="K9" s="18">
         <v>412.40199999999999</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="36">
+        <f t="shared" si="1"/>
+        <v>338.59500000000003</v>
+      </c>
       <c r="M9" s="8">
         <v>8</v>
       </c>
@@ -7060,7 +10653,10 @@
       <c r="Q9" s="18">
         <v>205.179</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="37">
+        <f t="shared" si="2"/>
+        <v>558.27566666666678</v>
+      </c>
       <c r="S9" s="12">
         <v>8</v>
       </c>
@@ -7076,9 +10672,12 @@
       <c r="W9" s="18">
         <v>416.267</v>
       </c>
-      <c r="X9" s="9"/>
+      <c r="X9" s="38">
+        <f t="shared" si="3"/>
+        <v>488.07600000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -7092,7 +10691,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G10" s="8">
         <v>9</v>
       </c>
@@ -7106,7 +10708,10 @@
         <v>12</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M10" s="8">
         <v>9</v>
       </c>
@@ -7122,7 +10727,10 @@
       <c r="Q10" s="18">
         <v>296.97300000000001</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="37">
+        <f t="shared" si="2"/>
+        <v>613.88666666666666</v>
+      </c>
       <c r="S10" s="12">
         <v>9</v>
       </c>
@@ -7138,9 +10746,12 @@
       <c r="W10" s="18">
         <v>405.29199999999997</v>
       </c>
-      <c r="X10" s="9"/>
+      <c r="X10" s="38">
+        <f t="shared" si="3"/>
+        <v>475.33166666666665</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
@@ -7154,7 +10765,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G11" s="8">
         <v>10</v>
       </c>
@@ -7168,7 +10782,10 @@
         <v>12</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M11" s="8">
         <v>10</v>
       </c>
@@ -7184,7 +10801,10 @@
       <c r="Q11" s="18">
         <v>1436.1479999999999</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="37">
+        <f t="shared" si="2"/>
+        <v>888.09933333333322</v>
+      </c>
       <c r="S11" s="19">
         <v>10</v>
       </c>
@@ -7200,9 +10820,12 @@
       <c r="W11" s="18">
         <v>409.47399999999999</v>
       </c>
-      <c r="X11" s="9"/>
+      <c r="X11" s="38">
+        <f t="shared" si="3"/>
+        <v>477.65466666666663</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>138</v>
       </c>
@@ -7219,8 +10842,8 @@
         <f>AVERAGE(E2,E3:E8)</f>
         <v>5.6478571428571422</v>
       </c>
-      <c r="F12" s="24">
-        <f>AVERAGE(C12:E12)</f>
+      <c r="F12" s="37">
+        <f t="shared" si="0"/>
         <v>7.0459523809523796</v>
       </c>
       <c r="G12" s="25"/>
@@ -7230,15 +10853,15 @@
         <v>86.979874999999993</v>
       </c>
       <c r="J12" s="24">
-        <f t="shared" ref="J12:K12" si="0">AVERAGE(J2:J11)</f>
+        <f t="shared" ref="J12:K12" si="4">AVERAGE(J2:J11)</f>
         <v>86.366124999999997</v>
       </c>
       <c r="K12" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>95.297624999999996</v>
       </c>
-      <c r="L12" s="24">
-        <f>AVERAGE(I12:K12)</f>
+      <c r="L12" s="36">
+        <f t="shared" si="1"/>
         <v>89.547874999999991</v>
       </c>
       <c r="M12" s="25"/>
@@ -7248,15 +10871,15 @@
         <v>154.36399999999998</v>
       </c>
       <c r="P12" s="24">
-        <f t="shared" ref="P12:Q12" si="1">AVERAGE(P2:P11)</f>
+        <f t="shared" ref="P12:Q12" si="5">AVERAGE(P2:P11)</f>
         <v>343.03622222222225</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>238.17644444444443</v>
       </c>
-      <c r="R12" s="24">
-        <f>AVERAGE(O12:Q12)</f>
+      <c r="R12" s="37">
+        <f t="shared" si="2"/>
         <v>245.1922222222222</v>
       </c>
       <c r="S12" s="26"/>
@@ -7266,19 +10889,19 @@
         <v>189.68911111111109</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" ref="V12:W12" si="2">AVERAGE(V2:V11)</f>
+        <f t="shared" ref="V12:W12" si="6">AVERAGE(V2:V11)</f>
         <v>163.68011111111113</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>161.92274999999998</v>
       </c>
-      <c r="X12" s="24">
-        <f>AVERAGE(U12:W12)</f>
+      <c r="X12" s="38">
+        <f t="shared" si="3"/>
         <v>171.76399074074072</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -7294,7 +10917,10 @@
       <c r="E13" s="14">
         <v>2.9060000000000001</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="37">
+        <f t="shared" si="0"/>
+        <v>2.657</v>
+      </c>
       <c r="G13" s="4">
         <v>1</v>
       </c>
@@ -7310,7 +10936,10 @@
       <c r="K13" s="14">
         <v>2.036</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="36">
+        <f t="shared" si="1"/>
+        <v>2.964</v>
+      </c>
       <c r="M13" s="4">
         <v>1</v>
       </c>
@@ -7326,7 +10955,10 @@
       <c r="Q13" s="14">
         <v>3.0129999999999999</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="37">
+        <f t="shared" si="2"/>
+        <v>2.8013333333333335</v>
+      </c>
       <c r="S13" s="15">
         <v>1</v>
       </c>
@@ -7342,9 +10974,13 @@
       <c r="W13" s="14">
         <v>6.0659999999999998</v>
       </c>
-      <c r="X13" s="5"/>
+      <c r="X13" s="38">
+        <f t="shared" si="3"/>
+        <v>4.399</v>
+      </c>
+      <c r="Z13" s="39"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -7360,7 +10996,10 @@
       <c r="E14" s="14">
         <v>10.436</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="37">
+        <f t="shared" si="0"/>
+        <v>7.4193333333333333</v>
+      </c>
       <c r="G14" s="4">
         <v>2</v>
       </c>
@@ -7376,7 +11015,10 @@
       <c r="K14" s="14">
         <v>5.94</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="36">
+        <f t="shared" si="1"/>
+        <v>5.6260000000000003</v>
+      </c>
       <c r="M14" s="4">
         <v>2</v>
       </c>
@@ -7392,7 +11034,10 @@
       <c r="Q14" s="14">
         <v>3.9060000000000001</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="37">
+        <f t="shared" si="2"/>
+        <v>7.0266666666666664</v>
+      </c>
       <c r="S14" s="15">
         <v>2</v>
       </c>
@@ -7408,9 +11053,12 @@
       <c r="W14" s="14">
         <v>3.9079999999999999</v>
       </c>
-      <c r="X14" s="5"/>
+      <c r="X14" s="38">
+        <f t="shared" si="3"/>
+        <v>4.9693333333333332</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -7426,7 +11074,10 @@
       <c r="E15" s="14">
         <v>3.9169999999999998</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="37">
+        <f t="shared" si="0"/>
+        <v>3.577</v>
+      </c>
       <c r="G15" s="4">
         <v>3</v>
       </c>
@@ -7442,7 +11093,10 @@
       <c r="K15" s="14">
         <v>3.3860000000000001</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="36">
+        <f t="shared" si="1"/>
+        <v>3.7756666666666665</v>
+      </c>
       <c r="M15" s="4">
         <v>3</v>
       </c>
@@ -7458,7 +11112,10 @@
       <c r="Q15" s="14">
         <v>3.5510000000000002</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="37">
+        <f t="shared" si="2"/>
+        <v>3.7143333333333337</v>
+      </c>
       <c r="S15" s="15">
         <v>3</v>
       </c>
@@ -7474,9 +11131,12 @@
       <c r="W15" s="14">
         <v>3.33</v>
       </c>
-      <c r="X15" s="5"/>
+      <c r="X15" s="38">
+        <f t="shared" si="3"/>
+        <v>4.8370000000000006</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -7492,7 +11152,10 @@
       <c r="E16" s="14">
         <v>3.569</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="37">
+        <f t="shared" si="0"/>
+        <v>4.1673333333333327</v>
+      </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
@@ -7508,7 +11171,10 @@
       <c r="K16" s="14">
         <v>12.755000000000001</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="36">
+        <f t="shared" si="1"/>
+        <v>7.0489999999999995</v>
+      </c>
       <c r="M16" s="4">
         <v>4</v>
       </c>
@@ -7524,7 +11190,10 @@
       <c r="Q16" s="14">
         <v>8.6509999999999998</v>
       </c>
-      <c r="R16" s="14"/>
+      <c r="R16" s="37">
+        <f t="shared" si="2"/>
+        <v>6.5620000000000003</v>
+      </c>
       <c r="S16" s="15">
         <v>4</v>
       </c>
@@ -7540,7 +11209,10 @@
       <c r="W16" s="14">
         <v>4.0869999999999997</v>
       </c>
-      <c r="X16" s="5"/>
+      <c r="X16" s="38">
+        <f t="shared" si="3"/>
+        <v>57.376666666666665</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7558,7 +11230,10 @@
       <c r="E17" s="14">
         <v>10.302</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="37">
+        <f t="shared" si="0"/>
+        <v>7.3056666666666663</v>
+      </c>
       <c r="G17" s="4">
         <v>5</v>
       </c>
@@ -7574,7 +11249,10 @@
       <c r="K17" s="14">
         <v>3.9689999999999999</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="36">
+        <f t="shared" si="1"/>
+        <v>5.3326666666666664</v>
+      </c>
       <c r="M17" s="4">
         <v>5</v>
       </c>
@@ -7590,7 +11268,10 @@
       <c r="Q17" s="14">
         <v>9.1359999999999992</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="37">
+        <f t="shared" si="2"/>
+        <v>5.2640000000000002</v>
+      </c>
       <c r="S17" s="15">
         <v>5</v>
       </c>
@@ -7606,7 +11287,10 @@
       <c r="W17" s="14">
         <v>3.948</v>
       </c>
-      <c r="X17" s="5"/>
+      <c r="X17" s="38">
+        <f t="shared" si="3"/>
+        <v>4.1736666666666666</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7624,7 +11308,10 @@
       <c r="E18" s="14">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="37">
+        <f t="shared" si="0"/>
+        <v>10.843666666666666</v>
+      </c>
       <c r="G18" s="4">
         <v>6</v>
       </c>
@@ -7640,7 +11327,10 @@
       <c r="K18" s="14">
         <v>18.507999999999999</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="36">
+        <f t="shared" si="1"/>
+        <v>17.995000000000001</v>
+      </c>
       <c r="M18" s="4">
         <v>6</v>
       </c>
@@ -7656,7 +11346,10 @@
       <c r="Q18" s="14">
         <v>16.68</v>
       </c>
-      <c r="R18" s="14"/>
+      <c r="R18" s="37">
+        <f t="shared" si="2"/>
+        <v>18.744</v>
+      </c>
       <c r="S18" s="15">
         <v>6</v>
       </c>
@@ -7672,7 +11365,10 @@
       <c r="W18" s="14">
         <v>39.935000000000002</v>
       </c>
-      <c r="X18" s="5"/>
+      <c r="X18" s="38">
+        <f t="shared" si="3"/>
+        <v>74.646000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -7690,7 +11386,10 @@
       <c r="E19" s="14">
         <v>10.988</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="37">
+        <f t="shared" si="0"/>
+        <v>13.468666666666666</v>
+      </c>
       <c r="G19" s="4">
         <v>7</v>
       </c>
@@ -7706,7 +11405,10 @@
       <c r="K19" s="14">
         <v>190.11</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="36">
+        <f t="shared" si="1"/>
+        <v>195.57833333333335</v>
+      </c>
       <c r="M19" s="4">
         <v>7</v>
       </c>
@@ -7722,7 +11424,10 @@
       <c r="Q19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="37">
+        <f t="shared" si="2"/>
+        <v>373.88499999999999</v>
+      </c>
       <c r="S19" s="15">
         <v>7</v>
       </c>
@@ -7736,7 +11441,10 @@
         <v>12</v>
       </c>
       <c r="W19" s="14"/>
-      <c r="X19" s="5"/>
+      <c r="X19" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -7752,7 +11460,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G20" s="4">
         <v>8</v>
       </c>
@@ -7768,7 +11479,10 @@
       <c r="K20" s="14">
         <v>308.23399999999998</v>
       </c>
-      <c r="L20" s="14"/>
+      <c r="L20" s="36">
+        <f t="shared" si="1"/>
+        <v>239.24366666666666</v>
+      </c>
       <c r="M20" s="4">
         <v>8</v>
       </c>
@@ -7784,7 +11498,10 @@
       <c r="Q20" s="14">
         <v>204.726</v>
       </c>
-      <c r="R20" s="14"/>
+      <c r="R20" s="37">
+        <f t="shared" si="2"/>
+        <v>212.69466666666668</v>
+      </c>
       <c r="S20" s="15">
         <v>8</v>
       </c>
@@ -7800,7 +11517,10 @@
       <c r="W20" s="14">
         <v>416.05700000000002</v>
       </c>
-      <c r="X20" s="5"/>
+      <c r="X20" s="38">
+        <f t="shared" si="3"/>
+        <v>513.8216666666666</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -7816,7 +11536,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G21" s="4">
         <v>9</v>
       </c>
@@ -7830,7 +11553,10 @@
         <v>12</v>
       </c>
       <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M21" s="4">
         <v>9</v>
       </c>
@@ -7846,7 +11572,10 @@
       <c r="Q21" s="14">
         <v>193.881</v>
       </c>
-      <c r="R21" s="14"/>
+      <c r="R21" s="37">
+        <f t="shared" si="2"/>
+        <v>201.13</v>
+      </c>
       <c r="S21" s="15">
         <v>9</v>
       </c>
@@ -7862,7 +11591,10 @@
       <c r="W21" s="14">
         <v>584.846</v>
       </c>
-      <c r="X21" s="5"/>
+      <c r="X21" s="38">
+        <f t="shared" si="3"/>
+        <v>509.89466666666664</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -7878,7 +11610,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G22" s="4">
         <v>10</v>
       </c>
@@ -7892,7 +11627,10 @@
         <v>12</v>
       </c>
       <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M22" s="4">
         <v>10</v>
       </c>
@@ -7908,7 +11646,10 @@
       <c r="Q22" s="14">
         <v>220.732</v>
       </c>
-      <c r="R22" s="14"/>
+      <c r="R22" s="37">
+        <f t="shared" si="2"/>
+        <v>265.77933333333334</v>
+      </c>
       <c r="S22" s="15">
         <v>10</v>
       </c>
@@ -7924,9 +11665,12 @@
       <c r="W22" s="14">
         <v>614.03300000000002</v>
       </c>
-      <c r="X22" s="5"/>
+      <c r="X22" s="38">
+        <f t="shared" si="3"/>
+        <v>511.78199999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>138</v>
       </c>
@@ -7943,8 +11687,8 @@
         <f>AVERAGE(E13,E14:E19)</f>
         <v>7.426857142857143</v>
       </c>
-      <c r="F23" s="24">
-        <f>AVERAGE(C23:E23)</f>
+      <c r="F23" s="37">
+        <f t="shared" si="0"/>
         <v>7.0626666666666678</v>
       </c>
       <c r="G23" s="25"/>
@@ -7954,15 +11698,15 @@
         <v>54.125500000000002</v>
       </c>
       <c r="J23" s="24">
-        <f t="shared" ref="J23" si="3">AVERAGE(J13:J22)</f>
+        <f t="shared" ref="J23" si="7">AVERAGE(J13:J22)</f>
         <v>56.843874999999997</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" ref="K23" si="4">AVERAGE(K13:K22)</f>
+        <f t="shared" ref="K23" si="8">AVERAGE(K13:K22)</f>
         <v>68.117249999999999</v>
       </c>
-      <c r="L23" s="24">
-        <f>AVERAGE(I23:K23)</f>
+      <c r="L23" s="36">
+        <f t="shared" si="1"/>
         <v>59.695541666666664</v>
       </c>
       <c r="M23" s="25"/>
@@ -7972,15 +11716,15 @@
         <v>122.3039</v>
       </c>
       <c r="P23" s="24">
-        <f t="shared" ref="P23" si="5">AVERAGE(P13:P22)</f>
+        <f t="shared" ref="P23" si="9">AVERAGE(P13:P22)</f>
         <v>73.079888888888888</v>
       </c>
       <c r="Q23" s="24">
-        <f t="shared" ref="Q23" si="6">AVERAGE(Q13:Q22)</f>
+        <f t="shared" ref="Q23" si="10">AVERAGE(Q13:Q22)</f>
         <v>73.808444444444433</v>
       </c>
-      <c r="R23" s="24">
-        <f>AVERAGE(O23:Q23)</f>
+      <c r="R23" s="37">
+        <f t="shared" si="2"/>
         <v>89.73074444444444</v>
       </c>
       <c r="S23" s="26"/>
@@ -7990,15 +11734,15 @@
         <v>186.96933333333334</v>
       </c>
       <c r="V23" s="24">
-        <f t="shared" ref="V23" si="7">AVERAGE(V13:V22)</f>
+        <f t="shared" ref="V23" si="11">AVERAGE(V13:V22)</f>
         <v>188.75177777777779</v>
       </c>
       <c r="W23" s="24">
-        <f t="shared" ref="W23" si="8">AVERAGE(W13:W22)</f>
+        <f t="shared" ref="W23" si="12">AVERAGE(W13:W22)</f>
         <v>186.24555555555557</v>
       </c>
-      <c r="X23" s="27">
-        <f>AVERAGE(U23:W23)</f>
+      <c r="X23" s="38">
+        <f t="shared" si="3"/>
         <v>187.32222222222222</v>
       </c>
     </row>
@@ -8018,7 +11762,10 @@
       <c r="E24" s="21">
         <v>1.4850000000000001</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="37">
+        <f t="shared" si="0"/>
+        <v>1.9043333333333334</v>
+      </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
@@ -8034,7 +11781,10 @@
       <c r="K24" s="21">
         <v>2.5030000000000001</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="36">
+        <f t="shared" si="1"/>
+        <v>3.3216666666666668</v>
+      </c>
       <c r="M24" s="6">
         <v>1</v>
       </c>
@@ -8050,7 +11800,10 @@
       <c r="Q24" s="21">
         <v>2.0510000000000002</v>
       </c>
-      <c r="R24" s="16"/>
+      <c r="R24" s="37">
+        <f t="shared" si="2"/>
+        <v>2.4760000000000004</v>
+      </c>
       <c r="S24" s="17">
         <v>1</v>
       </c>
@@ -8066,7 +11819,10 @@
       <c r="W24" s="21">
         <v>2.4980000000000002</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="38">
+        <f t="shared" si="3"/>
+        <v>2.4486666666666665</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -8084,7 +11840,10 @@
       <c r="E25" s="21">
         <v>10.074</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="37">
+        <f t="shared" si="0"/>
+        <v>5.6430000000000007</v>
+      </c>
       <c r="G25" s="6">
         <v>2</v>
       </c>
@@ -8100,7 +11859,10 @@
       <c r="K25" s="21">
         <v>4.585</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="36">
+        <f t="shared" si="1"/>
+        <v>4.7156666666666665</v>
+      </c>
       <c r="M25" s="6">
         <v>2</v>
       </c>
@@ -8116,7 +11878,10 @@
       <c r="Q25" s="21">
         <v>4.3239999999999998</v>
       </c>
-      <c r="R25" s="16"/>
+      <c r="R25" s="37">
+        <f t="shared" si="2"/>
+        <v>5.237333333333333</v>
+      </c>
       <c r="S25" s="17">
         <v>2</v>
       </c>
@@ -8132,7 +11897,10 @@
       <c r="W25" s="21">
         <v>167.35</v>
       </c>
-      <c r="X25" s="7"/>
+      <c r="X25" s="38">
+        <f t="shared" si="3"/>
+        <v>58.532333333333327</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -8150,7 +11918,10 @@
       <c r="E26" s="21">
         <v>3.3359999999999999</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="37">
+        <f t="shared" si="0"/>
+        <v>4.4786666666666664</v>
+      </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
@@ -8166,7 +11937,10 @@
       <c r="K26" s="21">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="36">
+        <f t="shared" si="1"/>
+        <v>10.690333333333333</v>
+      </c>
       <c r="M26" s="6">
         <v>3</v>
       </c>
@@ -8182,7 +11956,10 @@
       <c r="Q26" s="21">
         <v>6.9009999999999998</v>
       </c>
-      <c r="R26" s="16"/>
+      <c r="R26" s="37">
+        <f t="shared" si="2"/>
+        <v>5.8629999999999995</v>
+      </c>
       <c r="S26" s="17">
         <v>3</v>
       </c>
@@ -8198,7 +11975,10 @@
       <c r="W26" s="21">
         <v>10.303000000000001</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="38">
+        <f t="shared" si="3"/>
+        <v>7.176000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -8216,7 +11996,10 @@
       <c r="E27" s="21">
         <v>6.4749999999999996</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="37">
+        <f t="shared" si="0"/>
+        <v>5.4769999999999994</v>
+      </c>
       <c r="G27" s="6">
         <v>4</v>
       </c>
@@ -8232,7 +12015,10 @@
       <c r="K27" s="21">
         <v>4.1369999999999996</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2979999999999992</v>
+      </c>
       <c r="M27" s="6">
         <v>4</v>
       </c>
@@ -8248,7 +12034,10 @@
       <c r="Q27" s="21">
         <v>4.3710000000000004</v>
       </c>
-      <c r="R27" s="16"/>
+      <c r="R27" s="37">
+        <f t="shared" si="2"/>
+        <v>4.9669999999999996</v>
+      </c>
       <c r="S27" s="17">
         <v>4</v>
       </c>
@@ -8264,7 +12053,10 @@
       <c r="W27" s="21">
         <v>4.1609999999999996</v>
       </c>
-      <c r="X27" s="7"/>
+      <c r="X27" s="38">
+        <f t="shared" si="3"/>
+        <v>5.1659999999999995</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -8282,7 +12074,10 @@
       <c r="E28" s="21">
         <v>4.4630000000000001</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="37">
+        <f t="shared" si="0"/>
+        <v>4.2133333333333338</v>
+      </c>
       <c r="G28" s="6">
         <v>5</v>
       </c>
@@ -8298,7 +12093,10 @@
       <c r="K28" s="21">
         <v>4.0709999999999997</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="36">
+        <f t="shared" si="1"/>
+        <v>12.932999999999998</v>
+      </c>
       <c r="M28" s="6">
         <v>5</v>
       </c>
@@ -8314,7 +12112,10 @@
       <c r="Q28" s="21">
         <v>10.948</v>
       </c>
-      <c r="R28" s="16"/>
+      <c r="R28" s="37">
+        <f t="shared" si="2"/>
+        <v>6.3230000000000004</v>
+      </c>
       <c r="S28" s="17">
         <v>5</v>
       </c>
@@ -8330,7 +12131,10 @@
       <c r="W28" s="21">
         <v>6.173</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="38">
+        <f t="shared" si="3"/>
+        <v>59.339333333333343</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -8348,7 +12152,10 @@
       <c r="E29" s="21">
         <v>10.106</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="37">
+        <f t="shared" si="0"/>
+        <v>11.634333333333332</v>
+      </c>
       <c r="G29" s="6">
         <v>6</v>
       </c>
@@ -8364,7 +12171,10 @@
       <c r="K29" s="21">
         <v>18.462</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="36">
+        <f t="shared" si="1"/>
+        <v>17.49366666666667</v>
+      </c>
       <c r="M29" s="6">
         <v>6</v>
       </c>
@@ -8380,7 +12190,10 @@
       <c r="Q29" s="21">
         <v>16.649000000000001</v>
       </c>
-      <c r="R29" s="16"/>
+      <c r="R29" s="37">
+        <f t="shared" si="2"/>
+        <v>19.474333333333334</v>
+      </c>
       <c r="S29" s="17">
         <v>6</v>
       </c>
@@ -8396,7 +12209,10 @@
       <c r="W29" s="21">
         <v>21.829000000000001</v>
       </c>
-      <c r="X29" s="7"/>
+      <c r="X29" s="38">
+        <f t="shared" si="3"/>
+        <v>70.833000000000013</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -8414,7 +12230,10 @@
       <c r="E30" s="21">
         <v>11.167999999999999</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="37">
+        <f t="shared" si="0"/>
+        <v>12.67</v>
+      </c>
       <c r="G30" s="6">
         <v>7</v>
       </c>
@@ -8430,7 +12249,10 @@
       <c r="K30" s="21">
         <v>297.279</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="36">
+        <f t="shared" si="1"/>
+        <v>185.24866666666665</v>
+      </c>
       <c r="M30" s="6">
         <v>7</v>
       </c>
@@ -8444,7 +12266,10 @@
         <v>12</v>
       </c>
       <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="R30" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S30" s="17">
         <v>7</v>
       </c>
@@ -8460,7 +12285,10 @@
       <c r="W30" s="21">
         <v>197.85300000000001</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="38">
+        <f t="shared" si="3"/>
+        <v>198.13566666666665</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -8476,7 +12304,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G31" s="6">
         <v>8</v>
       </c>
@@ -8492,7 +12323,10 @@
       <c r="K31" s="21">
         <v>129.79300000000001</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="36">
+        <f t="shared" si="1"/>
+        <v>350.19766666666663</v>
+      </c>
       <c r="M31" s="6">
         <v>8</v>
       </c>
@@ -8508,7 +12342,10 @@
       <c r="Q31" s="21">
         <v>341.61900000000003</v>
       </c>
-      <c r="R31" s="16"/>
+      <c r="R31" s="37">
+        <f t="shared" si="2"/>
+        <v>242.56633333333335</v>
+      </c>
       <c r="S31" s="17">
         <v>8</v>
       </c>
@@ -8524,7 +12361,10 @@
       <c r="W31" s="21">
         <v>424.56599999999997</v>
       </c>
-      <c r="X31" s="7"/>
+      <c r="X31" s="38">
+        <f t="shared" si="3"/>
+        <v>416.85866666666669</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -8540,7 +12380,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="F32" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G32" s="6">
         <v>9</v>
       </c>
@@ -8554,7 +12397,10 @@
         <v>12</v>
       </c>
       <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="L32" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M32" s="6">
         <v>9</v>
       </c>
@@ -8570,7 +12416,10 @@
       <c r="Q32" s="21">
         <v>205.126</v>
       </c>
-      <c r="R32" s="16"/>
+      <c r="R32" s="37">
+        <f t="shared" si="2"/>
+        <v>210.64466666666667</v>
+      </c>
       <c r="S32" s="17">
         <v>9</v>
       </c>
@@ -8586,7 +12435,10 @@
       <c r="W32" s="21">
         <v>898.78399999999999</v>
       </c>
-      <c r="X32" s="7"/>
+      <c r="X32" s="38">
+        <f t="shared" si="3"/>
+        <v>572.12800000000004</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
@@ -8602,7 +12454,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G33" s="6">
         <v>10</v>
       </c>
@@ -8616,7 +12471,10 @@
         <v>12</v>
       </c>
       <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="L33" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M33" s="6">
         <v>10</v>
       </c>
@@ -8632,7 +12490,10 @@
       <c r="Q33" s="21">
         <v>399.55900000000003</v>
       </c>
-      <c r="R33" s="16"/>
+      <c r="R33" s="37">
+        <f t="shared" si="2"/>
+        <v>276.11400000000003</v>
+      </c>
       <c r="S33" s="23">
         <v>10</v>
       </c>
@@ -8648,9 +12509,12 @@
       <c r="W33" s="21">
         <v>898.78399999999999</v>
       </c>
-      <c r="X33" s="7"/>
+      <c r="X33" s="38">
+        <f t="shared" si="3"/>
+        <v>581.35733333333337</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>138</v>
       </c>
@@ -8659,7 +12523,7 @@
         <f>AVERAGE(C24:C33)</f>
         <v>6.4698571428571423</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <f>AVERAGE(D24,D25:D30)</f>
         <v>6.5237142857142851</v>
       </c>
@@ -8667,8 +12531,8 @@
         <f>AVERAGE(E24,E25:E30)</f>
         <v>6.7295714285714281</v>
       </c>
-      <c r="F34" s="24">
-        <f>AVERAGE(C34:E34)</f>
+      <c r="F34" s="37">
+        <f t="shared" si="0"/>
         <v>6.5743809523809524</v>
       </c>
       <c r="G34" s="26"/>
@@ -8678,15 +12542,15 @@
         <v>48.108000000000004</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" ref="J34" si="9">AVERAGE(J24:J33)</f>
+        <f t="shared" ref="J34" si="13">AVERAGE(J24:J33)</f>
         <v>114.04649999999999</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" ref="K34" si="10">AVERAGE(K24:K33)</f>
+        <f t="shared" ref="K34" si="14">AVERAGE(K24:K33)</f>
         <v>58.682500000000005</v>
       </c>
-      <c r="L34" s="24">
-        <f>AVERAGE(I34:K34)</f>
+      <c r="L34" s="36">
+        <f t="shared" si="1"/>
         <v>73.612333333333325</v>
       </c>
       <c r="M34" s="26"/>
@@ -8696,15 +12560,15 @@
         <v>72.854444444444454</v>
       </c>
       <c r="P34" s="24">
-        <f t="shared" ref="P34" si="11">AVERAGE(P24:P33)</f>
+        <f t="shared" ref="P34" si="15">AVERAGE(P24:P33)</f>
         <v>74.862111111111119</v>
       </c>
       <c r="Q34" s="24">
-        <f t="shared" ref="Q34" si="12">AVERAGE(Q24:Q33)</f>
+        <f t="shared" ref="Q34" si="16">AVERAGE(Q24:Q33)</f>
         <v>110.172</v>
       </c>
-      <c r="R34" s="24">
-        <f>AVERAGE(O34:Q34)</f>
+      <c r="R34" s="37">
+        <f t="shared" si="2"/>
         <v>85.962851851851852</v>
       </c>
       <c r="S34" s="26"/>
@@ -8714,91 +12578,109 @@
         <v>160.53590000000003</v>
       </c>
       <c r="V34" s="24">
-        <f t="shared" ref="V34" si="13">AVERAGE(V24:V33)</f>
+        <f t="shared" ref="V34" si="17">AVERAGE(V24:V33)</f>
         <v>167.82650000000001</v>
       </c>
       <c r="W34" s="24">
-        <f t="shared" ref="W34" si="14">AVERAGE(W24:W33)</f>
+        <f t="shared" ref="W34" si="18">AVERAGE(W24:W33)</f>
         <v>263.23009999999999</v>
       </c>
-      <c r="X34" s="24">
-        <f>AVERAGE(U34:W34)</f>
+      <c r="X34" s="38">
+        <f t="shared" si="3"/>
         <v>197.19749999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F35" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>139</v>
       </c>
       <c r="B36" s="35"/>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <f>AVERAGE(C12,C23,C34)</f>
         <v>7.0529047619047622</v>
       </c>
-      <c r="D36" s="31">
-        <f t="shared" ref="D36:F36" si="15">AVERAGE(D12,D23,D34)</f>
+      <c r="D36" s="30">
+        <f t="shared" ref="D36:E36" si="19">AVERAGE(D12,D23,D34)</f>
         <v>7.0286666666666662</v>
       </c>
-      <c r="E36" s="31">
-        <f t="shared" si="15"/>
+      <c r="E36" s="30">
+        <f t="shared" si="19"/>
         <v>6.6014285714285714</v>
       </c>
-      <c r="F36" s="31">
-        <f t="shared" si="15"/>
+      <c r="F36" s="37">
+        <f t="shared" si="0"/>
         <v>6.894333333333333</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="31">
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="30">
         <f>AVERAGE(I12,I23,I34)</f>
         <v>63.071124999999995</v>
       </c>
-      <c r="J36" s="31">
-        <f t="shared" ref="J36:L36" si="16">AVERAGE(J12,J23,J34)</f>
+      <c r="J36" s="30">
+        <f t="shared" ref="J36:K36" si="20">AVERAGE(J12,J23,J34)</f>
         <v>85.752166666666653</v>
       </c>
-      <c r="K36" s="31">
-        <f t="shared" si="16"/>
+      <c r="K36" s="30">
+        <f t="shared" si="20"/>
         <v>74.032458333333338</v>
       </c>
-      <c r="L36" s="31">
-        <f t="shared" si="16"/>
+      <c r="L36" s="36">
+        <f t="shared" si="1"/>
         <v>74.285250000000005</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="31">
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="30">
         <f>AVERAGE(O12,O23,O34)</f>
         <v>116.50744814814816</v>
       </c>
-      <c r="P36" s="31">
-        <f t="shared" ref="P36:R36" si="17">AVERAGE(P12,P23,P34)</f>
+      <c r="P36" s="30">
+        <f t="shared" ref="P36:Q36" si="21">AVERAGE(P12,P23,P34)</f>
         <v>163.65940740740743</v>
       </c>
-      <c r="Q36" s="31">
-        <f t="shared" si="17"/>
+      <c r="Q36" s="30">
+        <f t="shared" si="21"/>
         <v>140.71896296296293</v>
       </c>
-      <c r="R36" s="31">
-        <f t="shared" si="17"/>
+      <c r="R36" s="37">
+        <f t="shared" si="2"/>
         <v>140.29527283950617</v>
       </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="31">
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="30">
         <f>AVERAGE(U12,U23,U34)</f>
         <v>179.06478148148145</v>
       </c>
-      <c r="V36" s="31">
-        <f t="shared" ref="V36:X36" si="18">AVERAGE(V12,V23,V34)</f>
+      <c r="V36" s="30">
+        <f t="shared" ref="V36:X36" si="22">AVERAGE(V12,V23,V34)</f>
         <v>173.41946296296297</v>
       </c>
-      <c r="W36" s="31">
-        <f t="shared" si="18"/>
+      <c r="W36" s="30">
+        <f t="shared" si="22"/>
         <v>203.79946851851852</v>
       </c>
-      <c r="X36" s="31">
-        <f t="shared" si="18"/>
+      <c r="X36" s="38">
+        <f t="shared" si="3"/>
         <v>185.42790432098764</v>
       </c>
     </row>
@@ -8810,7 +12692,7 @@
       <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8822,7 +12704,7 @@
       <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>144</v>
       </c>
     </row>
